--- a/TestData/TestObjects.xlsx
+++ b/TestData/TestObjects.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProjects\Selenium_Python_Framework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EA72B35-47B8-489E-8ED7-5FE0974C04F5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9265859F-517F-403F-A400-ED2CFF1A885C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="FlightFinderPage" sheetId="2" r:id="rId2"/>
+    <sheet name="SelectFlightsPage" sheetId="3" r:id="rId3"/>
+    <sheet name="BookFlightPage" sheetId="4" r:id="rId4"/>
+    <sheet name="ConfirmationPage" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
   <si>
     <t>logicalName</t>
   </si>
@@ -64,6 +68,78 @@
   </si>
   <si>
     <t>//a[text()='SIGN-OFF']</t>
+  </si>
+  <si>
+    <t>rd_oneway</t>
+  </si>
+  <si>
+    <t>//input[@value='oneway']</t>
+  </si>
+  <si>
+    <t>lst_passengers</t>
+  </si>
+  <si>
+    <t>//select[@name='passCount']</t>
+  </si>
+  <si>
+    <t>lst_from</t>
+  </si>
+  <si>
+    <t>//select[@name='fromPort']</t>
+  </si>
+  <si>
+    <t>lst_day</t>
+  </si>
+  <si>
+    <t>//select[@name='fromDay']</t>
+  </si>
+  <si>
+    <t>btn_continue</t>
+  </si>
+  <si>
+    <t>//input[@name='findFlights']</t>
+  </si>
+  <si>
+    <t>btn_reserveflights</t>
+  </si>
+  <si>
+    <t>reserveFlights</t>
+  </si>
+  <si>
+    <t>txt_firstname</t>
+  </si>
+  <si>
+    <t>passFirst0</t>
+  </si>
+  <si>
+    <t>passLast0</t>
+  </si>
+  <si>
+    <t>txt_creditcard</t>
+  </si>
+  <si>
+    <t>creditnumber</t>
+  </si>
+  <si>
+    <t>txt_lastname</t>
+  </si>
+  <si>
+    <t>btn_purchase</t>
+  </si>
+  <si>
+    <t>buyFlights</t>
+  </si>
+  <si>
+    <t>we_confirmation</t>
+  </si>
+  <si>
+    <t>//font[contains(text(),'booked')]</t>
+  </si>
+  <si>
+    <t>btn_Logout</t>
+  </si>
+  <si>
+    <t>(//td)[55]/a</t>
   </si>
 </sst>
 </file>
@@ -413,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -483,4 +559,260 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B874BA-159B-4EC1-9E33-3EF94B3B4F67}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E58955A1-B854-452B-8770-421619297A42}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A22C1A-8D08-4287-9784-E80365CBAC9F}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA4E3B5-17BA-4107-9D15-BC45726DB4B7}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData/TestObjects.xlsx
+++ b/TestData/TestObjects.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProjects\Selenium_Python_Framework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9265859F-517F-403F-A400-ED2CFF1A885C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA082DB-74EB-41F6-AFFD-D0EFBC70E35D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
@@ -61,9 +61,6 @@
     <t>txt_Signin</t>
   </si>
   <si>
-    <t>//input[@name='login']</t>
-  </si>
-  <si>
     <t>lnk_SignOff</t>
   </si>
   <si>
@@ -140,6 +137,9 @@
   </si>
   <si>
     <t>(//td)[55]/a</t>
+  </si>
+  <si>
+    <t>//input[@name='submit']</t>
   </si>
 </sst>
 </file>
@@ -489,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,18 +541,18 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -589,57 +589,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -675,13 +675,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -717,46 +717,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -768,7 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA4E3B5-17BA-4107-9D15-BC45726DB4B7}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -792,24 +792,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/TestObjects.xlsx
+++ b/TestData/TestObjects.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProjects\Selenium_Python_Framework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA082DB-74EB-41F6-AFFD-D0EFBC70E35D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84E8E90-DB2E-4E63-AA44-9354C85A1552}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="39">
   <si>
     <t>logicalName</t>
   </si>
@@ -140,6 +140,12 @@
   </si>
   <si>
     <t>//input[@name='submit']</t>
+  </si>
+  <si>
+    <t>//a[contains(text(),'Flights')]</t>
+  </si>
+  <si>
+    <t>lnk_flights</t>
   </si>
 </sst>
 </file>
@@ -490,7 +496,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -563,10 +569,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92B874BA-159B-4EC1-9E33-3EF94B3B4F67}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -642,6 +648,17 @@
         <v>21</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -652,7 +669,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -694,7 +711,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,7 +786,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
